--- a/ТрайлП.xlsx
+++ b/ТрайлП.xlsx
@@ -204,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -255,6 +255,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -721,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1011,6 +1014,14 @@
       <c r="F13" s="15">
         <v>46527</v>
       </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
@@ -1276,20 +1287,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1312,14 +1323,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1334,4 +1337,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ТрайлП.xlsx
+++ b/ТрайлП.xlsx
@@ -96,14 +96,13 @@
     <t>Организационно-правовая форма</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Название компании</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Булка</t>
   </si>
   <si>
     <t>АРТЕКС</t>
+  </si>
+  <si>
+    <t>Название компании</t>
   </si>
 </sst>
 </file>
@@ -726,9 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
@@ -744,7 +741,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="41.4" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>22</v>
@@ -765,7 +762,7 @@
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -997,7 +994,7 @@
     </row>
     <row r="13" spans="1:10" ht="49.8" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
@@ -1287,20 +1284,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1323,6 +1320,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1337,12 +1342,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>